--- a/class/모델선택.xlsx
+++ b/class/모델선택.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>모델</t>
   </si>
@@ -55,13 +55,13 @@
     <t>DecisionTreeRegressor(45, max_depth=6)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>KNeighborsRegressor(777)</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor(42)</t>
+    <t>KNeighborsRegressor(777, n_neighbors=3)</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(42, n_neighbors=3)</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(42, n_neighbors=5)</t>
   </si>
   <si>
     <t>KNeighborsRegressor(42)+GridCV</t>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -125,14 +131,14 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -442,7 +448,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -489,7 +495,7 @@
         <v>78.295</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -507,146 +513,159 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>2662.284</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>51.597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="6">
         <v>0.971</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="6">
         <v>2661.123</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="6">
         <v>32.378</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="6">
         <v>51.586</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="6">
         <v>0.971</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="6">
         <v>2662.284</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="6">
         <v>32.28</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="6">
         <v>51.597</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="6">
         <v>0.983</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="6">
         <v>2232.821</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="6">
         <v>29.976</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="6">
         <v>47.253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="6">
+        <v>0.964</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3541.047</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37.951</v>
+      </c>
+      <c r="E10" s="6">
+        <v>59.507</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.96</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3788.17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>28.04</v>
-      </c>
-      <c r="E11" s="3">
-        <v>61.55</v>
+      <c r="B11" s="6">
+        <v>0.977</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2100.665</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30.114</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45.833</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="6">
+        <v>0.993</v>
+      </c>
+      <c r="C12" s="6">
         <v>634.14</v>
       </c>
-      <c r="D12" s="3">
-        <v>17.98</v>
-      </c>
-      <c r="E12" s="2">
-        <v>25.182</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="6">
+        <v>17.976</v>
+      </c>
+      <c r="E12" s="6">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>0.977</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>2100.665</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>45.833</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>30.114</v>
       </c>
     </row>
